--- a/maps/MN/MN20C_candidates.xlsx
+++ b/maps/MN/MN20C_candidates.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/MN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D7FC0-AE3C-FC42-96B3-EC8ADF012FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DE1E9A-03CE-1F4A-8344-13E17906A0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$100</definedName>
-    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$100</definedName>
+    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$99</definedName>
+    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/MN/MN20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
   <si>
     <t>#</t>
   </si>
@@ -132,93 +132,48 @@
     <t>MN20C_I088K01N08</t>
   </si>
   <si>
-    <t>0.000000</t>
-  </si>
-  <si>
     <t>MN20C_I077K01N08</t>
   </si>
   <si>
-    <t>0.000191</t>
-  </si>
-  <si>
     <t>MN20C_I031K01N08</t>
   </si>
   <si>
-    <t>0.243889</t>
-  </si>
-  <si>
     <t>MN20C_I043K01N08</t>
   </si>
   <si>
-    <t>0.257847</t>
-  </si>
-  <si>
     <t>MN20C_I073K01N08</t>
   </si>
   <si>
-    <t>0.065207</t>
-  </si>
-  <si>
     <t>MN20C_I013K01N08</t>
   </si>
   <si>
-    <t>0.073976</t>
-  </si>
-  <si>
     <t>MN20C_I049K01N08</t>
   </si>
   <si>
-    <t>0.072948</t>
-  </si>
-  <si>
     <t>MN20C_I054K01N08</t>
   </si>
   <si>
-    <t>0.079502</t>
-  </si>
-  <si>
     <t>MN20C_I079K01N08</t>
   </si>
   <si>
-    <t>0.147896</t>
-  </si>
-  <si>
     <t>MN20C_I012K01N08</t>
   </si>
   <si>
-    <t>0.174791</t>
-  </si>
-  <si>
     <t>MN20C_I005K01N08</t>
   </si>
   <si>
-    <t>0.078194</t>
-  </si>
-  <si>
     <t>MN20C_I038K01N08</t>
   </si>
   <si>
-    <t>0.167299</t>
-  </si>
-  <si>
     <t>MN20C_I001K01N08</t>
   </si>
   <si>
-    <t>0.064049</t>
-  </si>
-  <si>
     <t>MN20C_I007K01N08</t>
   </si>
   <si>
-    <t>0.223894</t>
-  </si>
-  <si>
     <t>MN20C_I026K01N08</t>
   </si>
   <si>
-    <t>0.077987</t>
-  </si>
-  <si>
     <t>MN20C_I030K01N08</t>
   </si>
   <si>
@@ -234,69 +189,33 @@
     <t>MN20C_I018K01N08</t>
   </si>
   <si>
-    <t>0.088045</t>
-  </si>
-  <si>
     <t>MN20C_I028K01N08</t>
   </si>
   <si>
-    <t>0.088600</t>
-  </si>
-  <si>
     <t>MN20C_I040K01N08</t>
   </si>
   <si>
-    <t>0.115623</t>
-  </si>
-  <si>
     <t>MN20C_I092K01N08</t>
   </si>
   <si>
-    <t>0.143709</t>
-  </si>
-  <si>
     <t>MN20C_I023K01N08</t>
   </si>
   <si>
-    <t>0.061807</t>
-  </si>
-  <si>
     <t>MN20C_I089K01N08</t>
   </si>
   <si>
-    <t>0.088329</t>
-  </si>
-  <si>
-    <t>MN20C_I078K01N08</t>
-  </si>
-  <si>
-    <t>0.063971</t>
-  </si>
-  <si>
     <t>MN20C_I062K01N08</t>
   </si>
   <si>
-    <t>0.162834</t>
-  </si>
-  <si>
     <t>MN20C_I058K01N08</t>
   </si>
   <si>
-    <t>0.080177</t>
-  </si>
-  <si>
     <t>MN20C_I091K01N08</t>
   </si>
   <si>
-    <t>0.075713</t>
-  </si>
-  <si>
     <t>MN20C_I008K01N08</t>
   </si>
   <si>
-    <t>0.075758</t>
-  </si>
-  <si>
     <t>MN20C_I011K01N08</t>
   </si>
   <si>
@@ -318,373 +237,190 @@
     <t>MN20C_I076K01N08</t>
   </si>
   <si>
-    <t>0.159765</t>
-  </si>
-  <si>
     <t>MN20C_I066K01N08</t>
   </si>
   <si>
-    <t>0.071033</t>
-  </si>
-  <si>
     <t>MN20C_I074K01N08</t>
   </si>
   <si>
     <t>MN20C_I033K01N08</t>
   </si>
   <si>
-    <t>0.089880</t>
-  </si>
-  <si>
     <t>MN20C_I057K01N08</t>
   </si>
   <si>
-    <t>0.163783</t>
-  </si>
-  <si>
     <t>MN20C_I017K01N08</t>
   </si>
   <si>
-    <t>0.252399</t>
-  </si>
-  <si>
     <t>MN20C_I087K01N08</t>
   </si>
   <si>
-    <t>0.096741</t>
-  </si>
-  <si>
     <t>MN20C_I053K01N08</t>
   </si>
   <si>
-    <t>0.088638</t>
-  </si>
-  <si>
     <t>MN20C_I014K01N08</t>
   </si>
   <si>
-    <t>0.067829</t>
-  </si>
-  <si>
     <t>MN20C_I093K01N08</t>
   </si>
   <si>
-    <t>0.068813</t>
-  </si>
-  <si>
     <t>MN20C_I099K01N08</t>
   </si>
   <si>
-    <t>0.243965</t>
-  </si>
-  <si>
     <t>MN20C_I022K01N08</t>
   </si>
   <si>
-    <t>0.054663</t>
-  </si>
-  <si>
     <t>MN20C_I024K01N08</t>
   </si>
   <si>
-    <t>0.087815</t>
-  </si>
-  <si>
     <t>MN20C_I034K01N08</t>
   </si>
   <si>
-    <t>0.087643</t>
-  </si>
-  <si>
     <t>MN20C_I069K01N08</t>
   </si>
   <si>
-    <t>0.079124</t>
-  </si>
-  <si>
     <t>MN20C_I021K01N08</t>
   </si>
   <si>
-    <t>0.080840</t>
-  </si>
-  <si>
     <t>MN20C_I042K01N08</t>
   </si>
   <si>
-    <t>0.050254</t>
-  </si>
-  <si>
     <t>MN20C_I083K01N08</t>
   </si>
   <si>
-    <t>0.104288</t>
-  </si>
-  <si>
     <t>MN20C_I072K01N08</t>
   </si>
   <si>
-    <t>0.126195</t>
-  </si>
-  <si>
     <t>MN20C_I086K01N08</t>
   </si>
   <si>
-    <t>0.077782</t>
-  </si>
-  <si>
     <t>MN20C_I044K01N08</t>
   </si>
   <si>
-    <t>0.093694</t>
-  </si>
-  <si>
     <t>MN20C_I004K01N08</t>
   </si>
   <si>
-    <t>0.103677</t>
-  </si>
-  <si>
     <t>MN20C_I035K01N08</t>
   </si>
   <si>
-    <t>0.175333</t>
-  </si>
-  <si>
     <t>MN20C_I039K01N08</t>
   </si>
   <si>
-    <t>0.245453</t>
-  </si>
-  <si>
     <t>MN20C_I082K01N08</t>
   </si>
   <si>
-    <t>0.248650</t>
-  </si>
-  <si>
-    <t>MN20C_I065K01N08</t>
-  </si>
-  <si>
-    <t>0.052473</t>
-  </si>
-  <si>
     <t>MN20C_I075K01N08</t>
   </si>
   <si>
-    <t>0.078487</t>
-  </si>
-  <si>
     <t>MN20C_I041K01N08</t>
   </si>
   <si>
-    <t>0.052855</t>
-  </si>
-  <si>
     <t>MN20C_I085K01N08</t>
   </si>
   <si>
     <t>MN20C_I037K01N08</t>
   </si>
   <si>
-    <t>0.151674</t>
-  </si>
-  <si>
     <t>MN20C_I015K01N08</t>
   </si>
   <si>
-    <t>0.251033</t>
-  </si>
-  <si>
     <t>MN20C_I029K01N08</t>
   </si>
   <si>
-    <t>0.056829</t>
-  </si>
-  <si>
     <t>MN20C_I016K01N08</t>
   </si>
   <si>
-    <t>0.126988</t>
-  </si>
-  <si>
     <t>MN20C_I061K01N08</t>
   </si>
   <si>
-    <t>0.055970</t>
-  </si>
-  <si>
     <t>MN20C_I097K01N08</t>
   </si>
   <si>
-    <t>0.156777</t>
-  </si>
-  <si>
     <t>MN20C_I055K01N08</t>
   </si>
   <si>
-    <t>0.213664</t>
-  </si>
-  <si>
     <t>MN20C_I064K01N08</t>
   </si>
   <si>
-    <t>0.161173</t>
-  </si>
-  <si>
     <t>MN20C_I020K01N08</t>
   </si>
   <si>
-    <t>0.151671</t>
-  </si>
-  <si>
     <t>MN20C_I006K01N08</t>
   </si>
   <si>
-    <t>0.074696</t>
-  </si>
-  <si>
     <t>MN20C_I047K01N08</t>
   </si>
   <si>
-    <t>0.077480</t>
-  </si>
-  <si>
     <t>MN20C_I080K01N08</t>
   </si>
   <si>
-    <t>0.093375</t>
-  </si>
-  <si>
     <t>MN20C_I056K01N08</t>
   </si>
   <si>
-    <t>0.185903</t>
-  </si>
-  <si>
     <t>MN20C_I027K01N08</t>
   </si>
   <si>
-    <t>0.058410</t>
-  </si>
-  <si>
     <t>MN20C_I094K01N08</t>
   </si>
   <si>
-    <t>0.070216</t>
-  </si>
-  <si>
     <t>MN20C_I003K01N08</t>
   </si>
   <si>
-    <t>0.092937</t>
-  </si>
-  <si>
     <t>MN20C_I060K01N08</t>
   </si>
   <si>
-    <t>0.087591</t>
-  </si>
-  <si>
     <t>MN20C_I068K01N08</t>
   </si>
   <si>
-    <t>0.150370</t>
-  </si>
-  <si>
     <t>MN20C_I096K01N08</t>
   </si>
   <si>
-    <t>0.048515</t>
-  </si>
-  <si>
     <t>MN20C_I098K01N08</t>
   </si>
   <si>
-    <t>0.165575</t>
-  </si>
-  <si>
     <t>MN20C_I095K01N08</t>
   </si>
   <si>
-    <t>0.236948</t>
-  </si>
-  <si>
     <t>MN20C_I084K01N08</t>
   </si>
   <si>
-    <t>0.266794</t>
-  </si>
-  <si>
     <t>MN20C_I009K01N08</t>
   </si>
   <si>
-    <t>0.156971</t>
-  </si>
-  <si>
     <t>MN20C_I000K01N08</t>
   </si>
   <si>
-    <t>0.212306</t>
-  </si>
-  <si>
     <t>MN20C_I036K01N08</t>
   </si>
   <si>
-    <t>0.161773</t>
-  </si>
-  <si>
     <t>MN20C_I032K01N08</t>
   </si>
   <si>
-    <t>0.078343</t>
-  </si>
-  <si>
     <t>MN20C_I063K01N08</t>
   </si>
   <si>
-    <t>0.091925</t>
-  </si>
-  <si>
     <t>MN20C_I059K01N08</t>
   </si>
   <si>
-    <t>0.154185</t>
-  </si>
-  <si>
     <t>MN20C_I046K01N08</t>
   </si>
   <si>
-    <t>0.078267</t>
-  </si>
-  <si>
     <t>MN20C_I071K01N08</t>
   </si>
   <si>
-    <t>0.479610</t>
-  </si>
-  <si>
     <t>MN20C_I050K01N08</t>
   </si>
   <si>
-    <t>0.522222</t>
-  </si>
-  <si>
     <t>MN20C_I002K01N08</t>
   </si>
   <si>
-    <t>0.496102</t>
-  </si>
-  <si>
     <t>MN20C_I010K01N08</t>
   </si>
   <si>
-    <t>0.475178</t>
-  </si>
-  <si>
     <t>MN20C_I045K01N08</t>
   </si>
   <si>
-    <t>0.521040</t>
+    <t>MN20C_I048K01N08</t>
   </si>
 </sst>
 </file>
@@ -821,11 +557,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,23 +907,23 @@
         <v>10</v>
       </c>
       <c r="B4" s="22">
-        <f>MIN(DATA!E$2:E$100)</f>
-        <v>8.1499999999999993E-3</v>
+        <f>MIN(DATA!E$2:E$99)</f>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="C4" s="8">
-        <f>MIN(DATA!F$2:F$100)</f>
+        <f>MIN(DATA!F$2:F$99)</f>
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f>MIN(DATA!G$2:G$100)</f>
-        <v>0.80245100000000003</v>
+        <f>MIN(DATA!G$2:G$99)</f>
+        <v>0.74311499999999997</v>
       </c>
       <c r="E4" s="8">
-        <f>MIN(DATA!H$2:H$100)</f>
+        <f>MIN(DATA!H$2:H$99)</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>MIN(DATA!I$2:I$100)</f>
+        <f>MIN(DATA!I$2:I$99)</f>
         <v>0</v>
       </c>
     </row>
@@ -1196,24 +932,24 @@
         <v>11</v>
       </c>
       <c r="B5" s="22">
-        <f>MAX(DATA!E$2:E$100)</f>
-        <v>3.1460000000000002E-2</v>
+        <f>MAX(DATA!E$2:E$99)</f>
+        <v>9.3100000000000006E-3</v>
       </c>
       <c r="C5" s="8">
-        <f>MAX(DATA!F$2:F$100)</f>
-        <v>1.8231000000000001E-2</v>
+        <f>MAX(DATA!F$2:F$99)</f>
+        <v>2.1343000000000001E-2</v>
       </c>
       <c r="D5" s="8">
-        <f>MAX(DATA!G$2:G$100)</f>
+        <f>MAX(DATA!G$2:G$99)</f>
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <f>MAX(DATA!H$2:H$100)</f>
-        <v>0.78129000000000004</v>
+        <f>MAX(DATA!H$2:H$99)</f>
+        <v>0.92801199999999995</v>
       </c>
       <c r="F5" s="8">
-        <f>MAX(DATA!I$2:I$100)</f>
-        <v>0</v>
+        <f>MAX(DATA!I$2:I$99)</f>
+        <v>0.70383200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1221,24 +957,24 @@
         <v>12</v>
       </c>
       <c r="B6" s="22">
-        <f>AVERAGE(DATA!E$2:E$100)</f>
-        <v>1.7375252525252526E-2</v>
+        <f>AVERAGE(DATA!E$2:E$99)</f>
+        <v>4.7520408163265297E-3</v>
       </c>
       <c r="C6" s="8">
-        <f>AVERAGE(DATA!F$2:F$100)</f>
-        <v>4.6216262626262621E-3</v>
+        <f>AVERAGE(DATA!F$2:F$99)</f>
+        <v>9.9954897959183692E-3</v>
       </c>
       <c r="D6" s="8">
-        <f>AVERAGE(DATA!G$2:G$100)</f>
-        <v>0.94190517171717147</v>
+        <f>AVERAGE(DATA!G$2:G$99)</f>
+        <v>0.87225374489795893</v>
       </c>
       <c r="E6" s="8">
-        <f>AVERAGE(DATA!H$2:H$100)</f>
-        <v>0.32384675757575765</v>
-      </c>
-      <c r="F6" s="8" t="e">
-        <f>AVERAGE(DATA!I$2:I$100)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(DATA!H$2:H$99)</f>
+        <v>0.56080070408163263</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(DATA!I$2:I$99)</f>
+        <v>0.32228785714285707</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1246,24 +982,24 @@
         <v>13</v>
       </c>
       <c r="B7" s="22">
-        <f>MEDIAN(DATA!E$2:E$100)</f>
-        <v>1.678E-2</v>
+        <f>MEDIAN(DATA!E$2:E$99)</f>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="C7" s="8">
-        <f>MEDIAN(DATA!F$2:F$100)</f>
-        <v>3.9740000000000001E-3</v>
+        <f>MEDIAN(DATA!F$2:F$99)</f>
+        <v>7.6544999999999998E-3</v>
       </c>
       <c r="D7" s="8">
-        <f>MEDIAN(DATA!G$2:G$100)</f>
-        <v>0.95841200000000004</v>
+        <f>MEDIAN(DATA!G$2:G$99)</f>
+        <v>0.89222399999999991</v>
       </c>
       <c r="E7" s="8">
-        <f>MEDIAN(DATA!H$2:H$100)</f>
-        <v>0.273038</v>
-      </c>
-      <c r="F7" s="8" t="e">
-        <f>MEDIAN(DATA!I$2:I$100)</f>
-        <v>#NUM!</v>
+        <f>MEDIAN(DATA!H$2:H$99)</f>
+        <v>0.531389</v>
+      </c>
+      <c r="F7" s="8">
+        <f>MEDIAN(DATA!I$2:I$99)</f>
+        <v>0.25920949999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1271,24 +1007,24 @@
         <v>14</v>
       </c>
       <c r="B8" s="27">
-        <f>STDEV(DATA!E$2:E$100)</f>
-        <v>3.986754176539071E-3</v>
+        <f>STDEV(DATA!E$2:E$99)</f>
+        <v>1.4971780735383025E-3</v>
       </c>
       <c r="C8" s="13">
-        <f>STDEV(DATA!F$2:F$100)</f>
-        <v>3.0722934516046198E-3</v>
+        <f>STDEV(DATA!F$2:F$99)</f>
+        <v>7.302310716400931E-3</v>
       </c>
       <c r="D8" s="13">
-        <f>STDEV(DATA!G$2:G$100)</f>
-        <v>3.9204318737275437E-2</v>
+        <f>STDEV(DATA!G$2:G$99)</f>
+        <v>6.7120732631089863E-2</v>
       </c>
       <c r="E8" s="13">
-        <f>STDEV(DATA!H$2:H$100)</f>
-        <v>0.14229560321215828</v>
-      </c>
-      <c r="F8" s="13" t="e">
-        <f>STDEV(DATA!I$2:I$100)</f>
-        <v>#DIV/0!</v>
+        <f>STDEV(DATA!H$2:H$99)</f>
+        <v>0.21489365573208832</v>
+      </c>
+      <c r="F8" s="13">
+        <f>STDEV(DATA!I$2:I$99)</f>
+        <v>0.18948398581345238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1339,13 +1075,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,8 +1093,7 @@
     <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1391,670 +1126,670 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
-        <v>89</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="29" t="b">
+      <c r="A2" s="5">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2845922.4569899999</v>
+      </c>
+      <c r="E2" s="21">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="F2" s="21">
         <v>0</v>
       </c>
-      <c r="D2" s="31">
-        <v>2854581.0788969998</v>
-      </c>
-      <c r="E2" s="32">
-        <v>1.7469999999999999E-2</v>
-      </c>
-      <c r="F2" s="32">
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="32">
-        <v>1</v>
-      </c>
-      <c r="H2" s="33">
+      <c r="I2" s="7">
         <v>0</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2845922.4569899999</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="F3" s="22">
         <v>0</v>
       </c>
-      <c r="D3" s="23">
-        <v>2854762.4689969998</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1.7469999999999999E-2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>6.3999999999999997E-5</v>
-      </c>
       <c r="G3" s="22">
-        <v>0.99990400000000002</v>
+        <v>1</v>
       </c>
       <c r="H3" s="9">
-        <v>1.127E-3</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>2856229.270157</v>
+        <v>2847470.9638169999</v>
       </c>
       <c r="E4" s="22">
-        <v>2.2349999999999998E-2</v>
+        <v>5.1399999999999996E-3</v>
       </c>
       <c r="F4" s="22">
-        <v>5.7700000000000004E-4</v>
+        <v>5.44E-4</v>
       </c>
       <c r="G4" s="22">
-        <v>0.89865499999999998</v>
+        <v>0.96953199999999995</v>
       </c>
       <c r="H4" s="9">
-        <v>0.46530300000000002</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>22</v>
+        <v>0.19151399999999999</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6.4334000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>44</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25">
-        <v>2856654.214811</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="F5" s="21">
-        <v>7.2599999999999997E-4</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0.89327100000000004</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.49462</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
+      <c r="A5" s="29">
+        <v>76</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <v>2847588.8405070002</v>
+      </c>
+      <c r="E5" s="32">
+        <v>4.8799999999999998E-3</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5.8600000000000004E-4</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0.97067199999999998</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0.19472999999999999</v>
+      </c>
+      <c r="I5" s="33">
+        <v>6.1928999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>2861356.3931510001</v>
+        <v>2847942.1598820002</v>
       </c>
       <c r="E6" s="22">
-        <v>3.0159999999999999E-2</v>
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>2.3730000000000001E-3</v>
+        <v>7.1000000000000002E-4</v>
       </c>
       <c r="G6" s="22">
-        <v>0.96858</v>
+        <v>0.98968199999999995</v>
       </c>
       <c r="H6" s="9">
-        <v>0.21871699999999999</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>26</v>
+        <v>8.7331000000000006E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2.0957E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>2862040.0220420002</v>
+        <v>2848991.6188949998</v>
       </c>
       <c r="E7" s="22">
-        <v>2.7210000000000002E-2</v>
+        <v>3.8700000000000002E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>2.6129999999999999E-3</v>
+        <v>1.078E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.96449799999999997</v>
+        <v>0.93632599999999999</v>
       </c>
       <c r="H7" s="9">
-        <v>0.24228</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>28</v>
+        <v>0.36538799999999999</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.14288000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>2862066.1101449998</v>
+        <v>2850009.2546629999</v>
       </c>
       <c r="E8" s="22">
-        <v>2.7210000000000002E-2</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F8" s="22">
-        <v>2.6220000000000002E-3</v>
+        <v>1.436E-3</v>
       </c>
       <c r="G8" s="22">
-        <v>0.96495500000000001</v>
+        <v>0.92254000000000003</v>
       </c>
       <c r="H8" s="9">
-        <v>0.239589</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>30</v>
+        <v>0.37254399999999999</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.18266199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>2862264.5991449999</v>
+        <v>2850122.24132</v>
       </c>
       <c r="E9" s="22">
-        <v>2.3099999999999999E-2</v>
+        <v>7.5199999999999998E-3</v>
       </c>
       <c r="F9" s="22">
-        <v>2.6919999999999999E-3</v>
+        <v>1.4760000000000001E-3</v>
       </c>
       <c r="G9" s="22">
-        <v>0.96223000000000003</v>
+        <v>0.96284899999999995</v>
       </c>
       <c r="H9" s="9">
-        <v>0.25591799999999998</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>32</v>
+        <v>0.23569399999999999</v>
+      </c>
+      <c r="I9" s="9">
+        <v>8.0027000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>2862514.2584219999</v>
+        <v>2850580.3349370002</v>
       </c>
       <c r="E10" s="22">
-        <v>1.4579999999999999E-2</v>
+        <v>6.13E-3</v>
       </c>
       <c r="F10" s="22">
-        <v>2.7789999999999998E-3</v>
+        <v>1.637E-3</v>
       </c>
       <c r="G10" s="22">
-        <v>0.93429899999999999</v>
+        <v>0.942963</v>
       </c>
       <c r="H10" s="9">
-        <v>0.35812100000000002</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>34</v>
+        <v>0.32072099999999998</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.127886</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>2862539.3522199998</v>
+        <v>2851156.3342769998</v>
       </c>
       <c r="E11" s="22">
-        <v>1.9519999999999999E-2</v>
+        <v>6.1799999999999997E-3</v>
       </c>
       <c r="F11" s="22">
-        <v>2.7880000000000001E-3</v>
+        <v>1.8389999999999999E-3</v>
       </c>
       <c r="G11" s="22">
-        <v>0.92558399999999996</v>
+        <v>0.96985900000000003</v>
       </c>
       <c r="H11" s="9">
-        <v>0.36123100000000002</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>36</v>
+        <v>0.20932700000000001</v>
+      </c>
+      <c r="I11" s="9">
+        <v>6.2992999999999993E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>2862656.0716309999</v>
+        <v>2851629.1982479999</v>
       </c>
       <c r="E12" s="22">
-        <v>1.8360000000000001E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>2.8289999999999999E-3</v>
+        <v>2.0049999999999998E-3</v>
       </c>
       <c r="G12" s="22">
-        <v>0.96257599999999999</v>
+        <v>0.95864099999999997</v>
       </c>
       <c r="H12" s="9">
-        <v>0.25526799999999999</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>38</v>
+        <v>0.266787</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9.0035000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>2862662.9627629998</v>
+        <v>2851801.2699489999</v>
       </c>
       <c r="E13" s="22">
-        <v>1.4189999999999999E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>2.8310000000000002E-3</v>
+        <v>2.0660000000000001E-3</v>
       </c>
       <c r="G13" s="22">
-        <v>0.92704699999999995</v>
+        <v>0.93981000000000003</v>
       </c>
       <c r="H13" s="9">
-        <v>0.38924300000000001</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>40</v>
+        <v>0.34746199999999999</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.135432</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>2863354.9787380002</v>
+        <v>2851850.3913389998</v>
       </c>
       <c r="E14" s="22">
-        <v>2.0670000000000001E-2</v>
+        <v>6.9100000000000003E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>3.0739999999999999E-3</v>
+        <v>2.0830000000000002E-3</v>
       </c>
       <c r="G14" s="22">
-        <v>0.96913300000000002</v>
+        <v>0.94380399999999998</v>
       </c>
       <c r="H14" s="9">
-        <v>0.21735399999999999</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>42</v>
+        <v>0.32887100000000002</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.12595600000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>2863476.2041779999</v>
+        <v>2852294.6648519998</v>
       </c>
       <c r="E15" s="22">
-        <v>8.1499999999999993E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F15" s="22">
-        <v>3.1159999999999998E-3</v>
+        <v>2.2390000000000001E-3</v>
       </c>
       <c r="G15" s="22">
-        <v>0.90752299999999997</v>
+        <v>0.90490000000000004</v>
       </c>
       <c r="H15" s="9">
-        <v>0.41040500000000002</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>44</v>
+        <v>0.48019099999999998</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.228632</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>2863586.299751</v>
+        <v>2852552.4401079998</v>
       </c>
       <c r="E16" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>4.9899999999999996E-3</v>
       </c>
       <c r="F16" s="22">
-        <v>3.1549999999999998E-3</v>
+        <v>2.33E-3</v>
       </c>
       <c r="G16" s="22">
-        <v>0.96266200000000002</v>
+        <v>0.90403500000000003</v>
       </c>
       <c r="H16" s="9">
-        <v>0.25400699999999998</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>46</v>
+        <v>0.46344600000000002</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.23134399999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>2863586.299751</v>
+        <v>2852608.639705</v>
       </c>
       <c r="E17" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>5.1399999999999996E-3</v>
       </c>
       <c r="F17" s="22">
-        <v>3.1549999999999998E-3</v>
+        <v>2.349E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.96266200000000002</v>
+        <v>0.946272</v>
       </c>
       <c r="H17" s="9">
-        <v>0.25400699999999998</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>46</v>
+        <v>0.32761400000000002</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.115892</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>2863586.299751</v>
+        <v>2852745.2588340002</v>
       </c>
       <c r="E18" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F18" s="22">
-        <v>3.1549999999999998E-3</v>
+        <v>2.3969999999999998E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.96266200000000002</v>
+        <v>0.90405400000000002</v>
       </c>
       <c r="H18" s="9">
-        <v>0.25400699999999998</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>46</v>
+        <v>0.45104499999999997</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.23278399999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>2863586.299751</v>
+        <v>2852847.68983</v>
       </c>
       <c r="E19" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>3.7200000000000002E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>3.1549999999999998E-3</v>
+        <v>2.4329999999999998E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.96266200000000002</v>
+        <v>0.90331799999999995</v>
       </c>
       <c r="H19" s="9">
-        <v>0.25400699999999998</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>46</v>
+        <v>0.46783999999999998</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.233711</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>2863586.299751</v>
+        <v>2852848.976423</v>
       </c>
       <c r="E20" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="F20" s="22">
-        <v>3.1549999999999998E-3</v>
+        <v>2.434E-3</v>
       </c>
       <c r="G20" s="22">
-        <v>0.96266200000000002</v>
+        <v>0.90830599999999995</v>
       </c>
       <c r="H20" s="9">
-        <v>0.25400699999999998</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>46</v>
+        <v>0.434249</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.216031</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>2863768.707165</v>
+        <v>2852949.2994329999</v>
       </c>
       <c r="E21" s="22">
-        <v>1.6590000000000001E-2</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>3.2190000000000001E-3</v>
+        <v>2.4689999999999998E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.95813999999999999</v>
+        <v>0.93714600000000003</v>
       </c>
       <c r="H21" s="9">
-        <v>0.27545599999999998</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>52</v>
+        <v>0.37176799999999999</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.13828499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>2863792.767099</v>
+        <v>2852988.2173660002</v>
       </c>
       <c r="E22" s="22">
-        <v>1.626E-2</v>
+        <v>2.66E-3</v>
       </c>
       <c r="F22" s="22">
-        <v>3.2269999999999998E-3</v>
+        <v>2.483E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.95827799999999996</v>
+        <v>0.93364899999999995</v>
       </c>
       <c r="H22" s="9">
-        <v>0.27445900000000001</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>54</v>
+        <v>0.375469</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.14921999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>2863897.0824150001</v>
+        <v>2853034.418325</v>
       </c>
       <c r="E23" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>4.8599999999999997E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>3.264E-3</v>
+        <v>2.4989999999999999E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.94614399999999999</v>
+        <v>0.87713799999999997</v>
       </c>
       <c r="H23" s="9">
-        <v>0.33664300000000003</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>56</v>
+        <v>0.53441300000000003</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.31039899999999998</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>2863926.1715569999</v>
+        <v>2853852.3869810002</v>
       </c>
       <c r="E24" s="22">
-        <v>2.4510000000000001E-2</v>
+        <v>3.81E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>3.274E-3</v>
+        <v>2.7859999999999998E-3</v>
       </c>
       <c r="G24" s="22">
-        <v>0.93440100000000004</v>
+        <v>0.90127699999999999</v>
       </c>
       <c r="H24" s="9">
-        <v>0.390349</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>58</v>
+        <v>0.47276299999999999</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.24021799999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2062,816 +1797,816 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>2864102.022438</v>
+        <v>2854147.4130600002</v>
       </c>
       <c r="E25" s="22">
-        <v>1.4460000000000001E-2</v>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="F25" s="22">
-        <v>3.3349999999999999E-3</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="G25" s="22">
-        <v>0.97025799999999995</v>
+        <v>0.92118599999999995</v>
       </c>
       <c r="H25" s="9">
-        <v>0.211837</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>60</v>
+        <v>0.38675900000000002</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.18651999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>2864121.9849370001</v>
+        <v>2854172.4369890001</v>
       </c>
       <c r="E26" s="22">
-        <v>1.6480000000000002E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>3.3419999999999999E-3</v>
+        <v>2.8990000000000001E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.95841200000000004</v>
+        <v>0.89700899999999995</v>
       </c>
       <c r="H26" s="9">
-        <v>0.27356000000000003</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>62</v>
+        <v>0.46393099999999998</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.25096499999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>2864182.9836400002</v>
+        <v>2854228.8067950001</v>
       </c>
       <c r="E27" s="22">
-        <v>1.7979999999999999E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>3.3639999999999998E-3</v>
+        <v>2.9190000000000002E-3</v>
       </c>
       <c r="G27" s="22">
-        <v>0.96920499999999998</v>
+        <v>0.89697800000000005</v>
       </c>
       <c r="H27" s="9">
-        <v>0.21929399999999999</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>64</v>
+        <v>0.46430300000000002</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.25102799999999997</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>2864223.1758599998</v>
+        <v>2854347.7840169999</v>
       </c>
       <c r="E28" s="22">
-        <v>1.669E-2</v>
+        <v>3.8899999999999998E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>3.3779999999999999E-3</v>
+        <v>2.96E-3</v>
       </c>
       <c r="G28" s="22">
-        <v>0.92680899999999999</v>
+        <v>0.89109899999999997</v>
       </c>
       <c r="H28" s="9">
-        <v>0.40935899999999997</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>66</v>
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.27024700000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>2864274.265956</v>
+        <v>2855251.744897</v>
       </c>
       <c r="E29" s="22">
-        <v>2.461E-2</v>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>3.3960000000000001E-3</v>
+        <v>3.2780000000000001E-3</v>
       </c>
       <c r="G29" s="22">
-        <v>0.96185900000000002</v>
+        <v>0.94146300000000005</v>
       </c>
       <c r="H29" s="9">
-        <v>0.26035000000000003</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>68</v>
+        <v>0.35926799999999998</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.12774099999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>2864275.1555030001</v>
+        <v>2855418.3516179998</v>
       </c>
       <c r="E30" s="22">
-        <v>1.7780000000000001E-2</v>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>3.3960000000000001E-3</v>
+        <v>3.3370000000000001E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.96368799999999999</v>
+        <v>0.91412099999999996</v>
       </c>
       <c r="H30" s="9">
-        <v>0.24660000000000001</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>70</v>
+        <v>0.43265300000000001</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.203626</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>2864290.3732329998</v>
+        <v>2855654.6347320001</v>
       </c>
       <c r="E31" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="F31" s="22">
-        <v>3.4009999999999999E-3</v>
+        <v>3.4199999999999999E-3</v>
       </c>
       <c r="G31" s="22">
-        <v>0.96366700000000005</v>
+        <v>0.95439200000000002</v>
       </c>
       <c r="H31" s="9">
-        <v>0.246698</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>72</v>
+        <v>0.297933</v>
+      </c>
+      <c r="I31" s="9">
+        <v>9.6939999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>2864290.3732329998</v>
+        <v>2856165.083776</v>
       </c>
       <c r="E32" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>3.3700000000000002E-3</v>
       </c>
       <c r="F32" s="22">
-        <v>3.4009999999999999E-3</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="G32" s="22">
-        <v>0.96366700000000005</v>
+        <v>0.950542</v>
       </c>
       <c r="H32" s="9">
-        <v>0.246698</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>72</v>
+        <v>0.31969700000000001</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.10528899999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>2864290.3732329998</v>
+        <v>2856870.281246</v>
       </c>
       <c r="E33" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="F33" s="22">
-        <v>3.4009999999999999E-3</v>
+        <v>3.8470000000000002E-3</v>
       </c>
       <c r="G33" s="22">
-        <v>0.96366700000000005</v>
+        <v>0.95809</v>
       </c>
       <c r="H33" s="9">
-        <v>0.246698</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>72</v>
+        <v>0.27163199999999998</v>
+      </c>
+      <c r="I33" s="9">
+        <v>8.8605000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>2864290.3732329998</v>
+        <v>2857380.2256700001</v>
       </c>
       <c r="E34" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>4.15E-3</v>
       </c>
       <c r="F34" s="22">
-        <v>3.4009999999999999E-3</v>
+        <v>4.0260000000000001E-3</v>
       </c>
       <c r="G34" s="22">
-        <v>0.96366700000000005</v>
+        <v>0.90644100000000005</v>
       </c>
       <c r="H34" s="9">
-        <v>0.246698</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>72</v>
+        <v>0.47733500000000001</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0.21801200000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>2864290.3732329998</v>
+        <v>2857639.1844660002</v>
       </c>
       <c r="E35" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>2.7799999999999999E-3</v>
       </c>
       <c r="F35" s="22">
-        <v>3.4009999999999999E-3</v>
+        <v>4.117E-3</v>
       </c>
       <c r="G35" s="22">
-        <v>0.96366700000000005</v>
+        <v>0.88318099999999999</v>
       </c>
       <c r="H35" s="9">
-        <v>0.246698</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>72</v>
+        <v>0.52836499999999997</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0.28571299999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>2864290.3732329998</v>
+        <v>2859919.7267209999</v>
       </c>
       <c r="E36" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>6.28E-3</v>
       </c>
       <c r="F36" s="22">
-        <v>3.4009999999999999E-3</v>
+        <v>4.9179999999999996E-3</v>
       </c>
       <c r="G36" s="22">
-        <v>0.96366700000000005</v>
+        <v>0.87487499999999996</v>
       </c>
       <c r="H36" s="9">
-        <v>0.246698</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>72</v>
+        <v>0.54750600000000005</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.30984200000000001</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>2864290.3732329998</v>
+        <v>2863592.9688439998</v>
       </c>
       <c r="E37" s="22">
-        <v>1.7940000000000001E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>3.4009999999999999E-3</v>
+        <v>6.2090000000000001E-3</v>
       </c>
       <c r="G37" s="22">
-        <v>0.96366700000000005</v>
+        <v>0.92627099999999996</v>
       </c>
       <c r="H37" s="9">
-        <v>0.246698</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>72</v>
+        <v>0.413576</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0.163464</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>2864860.1496950001</v>
+        <v>2864767.4437460001</v>
       </c>
       <c r="E38" s="22">
-        <v>1.8749999999999999E-2</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F38" s="22">
-        <v>3.601E-3</v>
+        <v>6.6220000000000003E-3</v>
       </c>
       <c r="G38" s="22">
-        <v>0.92833299999999996</v>
+        <v>0.92707099999999998</v>
       </c>
       <c r="H38" s="9">
-        <v>0.38445499999999999</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>80</v>
+        <v>0.42434300000000003</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.16014500000000001</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>2865034.185935</v>
+        <v>2864949.5032859999</v>
       </c>
       <c r="E39" s="22">
-        <v>1.464E-2</v>
+        <v>5.2399999999999999E-3</v>
       </c>
       <c r="F39" s="22">
-        <v>3.6619999999999999E-3</v>
+        <v>6.6860000000000001E-3</v>
       </c>
       <c r="G39" s="22">
-        <v>0.96588399999999996</v>
+        <v>0.92612399999999995</v>
       </c>
       <c r="H39" s="9">
-        <v>0.23721300000000001</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>82</v>
+        <v>0.42626500000000001</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0.162441</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>2865034.185935</v>
+        <v>2865019.8808309999</v>
       </c>
       <c r="E40" s="22">
-        <v>1.464E-2</v>
+        <v>3.1800000000000001E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>3.6619999999999999E-3</v>
+        <v>6.7099999999999998E-3</v>
       </c>
       <c r="G40" s="22">
-        <v>0.96588399999999996</v>
+        <v>0.91678599999999999</v>
       </c>
       <c r="H40" s="9">
-        <v>0.23721300000000001</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>82</v>
+        <v>0.46476699999999999</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0.18498999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>2865139.2173029999</v>
+        <v>2865214.8700089999</v>
       </c>
       <c r="E41" s="22">
-        <v>1.529E-2</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>3.699E-3</v>
+        <v>6.7790000000000003E-3</v>
       </c>
       <c r="G41" s="22">
-        <v>0.95752999999999999</v>
+        <v>0.91387499999999999</v>
       </c>
       <c r="H41" s="9">
-        <v>0.27258599999999999</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>85</v>
+        <v>0.47467399999999998</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0.192269</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>2865232.9193429998</v>
+        <v>2865214.8700089999</v>
       </c>
       <c r="E42" s="22">
-        <v>2.026E-2</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>3.7309999999999999E-3</v>
+        <v>6.7790000000000003E-3</v>
       </c>
       <c r="G42" s="22">
-        <v>0.92856399999999994</v>
+        <v>0.91387499999999999</v>
       </c>
       <c r="H42" s="9">
-        <v>0.38708399999999998</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>87</v>
+        <v>0.47467399999999998</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.192269</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>2865377.641423</v>
+        <v>2866155.622579</v>
       </c>
       <c r="E43" s="22">
-        <v>1.6230000000000001E-2</v>
+        <v>5.8199999999999997E-3</v>
       </c>
       <c r="F43" s="22">
-        <v>3.7820000000000002E-3</v>
+        <v>7.11E-3</v>
       </c>
       <c r="G43" s="22">
-        <v>0.894069</v>
+        <v>0.92683800000000005</v>
       </c>
       <c r="H43" s="9">
-        <v>0.491732</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>89</v>
+        <v>0.42340100000000003</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.160717</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>2865540.0007469999</v>
+        <v>2867168.3420310002</v>
       </c>
       <c r="E44" s="22">
-        <v>1.456E-2</v>
+        <v>6.0699999999999999E-3</v>
       </c>
       <c r="F44" s="22">
-        <v>3.839E-3</v>
+        <v>7.4650000000000003E-3</v>
       </c>
       <c r="G44" s="22">
-        <v>0.95435099999999995</v>
+        <v>0.92448799999999998</v>
       </c>
       <c r="H44" s="9">
-        <v>0.29809099999999999</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>91</v>
+        <v>0.43420300000000001</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0.166378</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>2865712.1939269998</v>
+        <v>2867313.5018119998</v>
       </c>
       <c r="E45" s="22">
-        <v>1.702E-2</v>
+        <v>5.3800000000000002E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>3.8990000000000001E-3</v>
+        <v>7.5160000000000001E-3</v>
       </c>
       <c r="G45" s="22">
-        <v>0.95800200000000002</v>
+        <v>0.86572099999999996</v>
       </c>
       <c r="H45" s="9">
-        <v>0.28139199999999998</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>93</v>
+        <v>0.62249299999999996</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0.32407399999999997</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>2865783.9149199999</v>
+        <v>2867337.6231419998</v>
       </c>
       <c r="E46" s="22">
-        <v>1.3050000000000001E-2</v>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>3.9249999999999997E-3</v>
+        <v>7.5249999999999996E-3</v>
       </c>
       <c r="G46" s="22">
-        <v>0.96733800000000003</v>
+        <v>0.89517100000000005</v>
       </c>
       <c r="H46" s="9">
-        <v>0.227071</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>95</v>
+        <v>0.52737500000000004</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0.24257999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>2865805.3373690001</v>
+        <v>2867432.0052169999</v>
       </c>
       <c r="E47" s="22">
-        <v>1.8519999999999998E-2</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>3.9319999999999997E-3</v>
+        <v>7.5579999999999996E-3</v>
       </c>
       <c r="G47" s="22">
-        <v>0.96687800000000002</v>
+        <v>0.909914</v>
       </c>
       <c r="H47" s="9">
-        <v>0.22936599999999999</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>97</v>
+        <v>0.48239300000000002</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0.20285</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>2865809.1165729999</v>
+        <v>2867456.1876460002</v>
       </c>
       <c r="E48" s="22">
-        <v>1.7319999999999999E-2</v>
+        <v>3.14E-3</v>
       </c>
       <c r="F48" s="22">
-        <v>3.9329999999999999E-3</v>
+        <v>7.5669999999999999E-3</v>
       </c>
       <c r="G48" s="22">
-        <v>0.89788599999999996</v>
+        <v>0.88575099999999996</v>
       </c>
       <c r="H48" s="9">
-        <v>0.471057</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>99</v>
+        <v>0.59153100000000003</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0.26739099999999999</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>2865814.5446600001</v>
+        <v>2867516.530669</v>
       </c>
       <c r="E49" s="22">
-        <v>1.6240000000000001E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F49" s="22">
-        <v>3.9350000000000001E-3</v>
+        <v>7.5880000000000001E-3</v>
       </c>
       <c r="G49" s="22">
-        <v>0.97362000000000004</v>
+        <v>0.922925</v>
       </c>
       <c r="H49" s="9">
-        <v>0.18754000000000001</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>101</v>
+        <v>0.44153199999999998</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0.17005400000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>80</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>2865873.4408590002</v>
+        <v>2867589.212698</v>
       </c>
       <c r="E50" s="22">
-        <v>2.23E-2</v>
+        <v>5.4200000000000003E-3</v>
       </c>
       <c r="F50" s="22">
-        <v>3.9560000000000003E-3</v>
+        <v>7.613E-3</v>
       </c>
       <c r="G50" s="22">
-        <v>0.95863900000000002</v>
+        <v>0.881741</v>
       </c>
       <c r="H50" s="9">
-        <v>0.273038</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>103</v>
+        <v>0.57801000000000002</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0.28051599999999999</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>2865924.6737040002</v>
+        <v>2867826.0277229999</v>
       </c>
       <c r="E51" s="22">
-        <v>1.3050000000000001E-2</v>
+        <v>4.62E-3</v>
       </c>
       <c r="F51" s="22">
-        <v>3.9740000000000001E-3</v>
+        <v>7.6959999999999997E-3</v>
       </c>
       <c r="G51" s="22">
-        <v>0.95845199999999997</v>
+        <v>0.91370899999999999</v>
       </c>
       <c r="H51" s="9">
-        <v>0.27939799999999998</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>105</v>
+        <v>0.47457700000000003</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0.19275800000000001</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>2866074.0353029999</v>
+        <v>2867976.993371</v>
       </c>
       <c r="E52" s="22">
-        <v>1.6240000000000001E-2</v>
+        <v>4.7800000000000004E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>4.0260000000000001E-3</v>
+        <v>7.7499999999999999E-3</v>
       </c>
       <c r="G52" s="22">
-        <v>0.96237300000000003</v>
+        <v>0.91376400000000002</v>
       </c>
       <c r="H52" s="9">
-        <v>0.246004</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>107</v>
+        <v>0.46439399999999997</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0.19282299999999999</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>108</v>
@@ -2880,1385 +2615,1356 @@
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>2866142.6229599998</v>
+        <v>2868270.372527</v>
       </c>
       <c r="E53" s="22">
-        <v>1.6240000000000001E-2</v>
+        <v>4.0800000000000003E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>4.0499999999999998E-3</v>
+        <v>7.8530000000000006E-3</v>
       </c>
       <c r="G53" s="22">
-        <v>0.96160500000000004</v>
+        <v>0.90170300000000003</v>
       </c>
       <c r="H53" s="9">
-        <v>0.25375599999999998</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>109</v>
+        <v>0.509127</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0.22498799999999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>2866204.6191949998</v>
+        <v>2868434.3164559999</v>
       </c>
       <c r="E54" s="22">
-        <v>1.34E-2</v>
+        <v>4.8399999999999997E-3</v>
       </c>
       <c r="F54" s="22">
-        <v>4.0720000000000001E-3</v>
+        <v>7.9100000000000004E-3</v>
       </c>
       <c r="G54" s="22">
-        <v>0.97562899999999997</v>
+        <v>0.91713599999999995</v>
       </c>
       <c r="H54" s="9">
-        <v>0.176727</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>111</v>
+        <v>0.45273799999999997</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0.18521599999999999</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>2866338.5565650002</v>
+        <v>2868736.3375329999</v>
       </c>
       <c r="E55" s="22">
-        <v>2.5770000000000001E-2</v>
+        <v>4.6299999999999996E-3</v>
       </c>
       <c r="F55" s="22">
-        <v>4.1190000000000003E-3</v>
+        <v>8.0160000000000006E-3</v>
       </c>
       <c r="G55" s="22">
-        <v>0.95105399999999995</v>
+        <v>0.871973</v>
       </c>
       <c r="H55" s="9">
-        <v>0.31649100000000002</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>113</v>
+        <v>0.60403099999999998</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.310587</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>2866745.7031109999</v>
+        <v>2868742.9791219998</v>
       </c>
       <c r="E56" s="22">
-        <v>1.47E-2</v>
+        <v>6.1700000000000001E-3</v>
       </c>
       <c r="F56" s="22">
-        <v>4.261E-3</v>
+        <v>8.0190000000000001E-3</v>
       </c>
       <c r="G56" s="22">
-        <v>0.94255699999999998</v>
+        <v>0.89834700000000001</v>
       </c>
       <c r="H56" s="9">
-        <v>0.33956199999999997</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>115</v>
+        <v>0.55665600000000004</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.231318</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>2866896.8380010002</v>
+        <v>2869163.2429829999</v>
       </c>
       <c r="E57" s="22">
-        <v>1.6240000000000001E-2</v>
+        <v>4.5300000000000002E-3</v>
       </c>
       <c r="F57" s="22">
-        <v>4.3140000000000001E-3</v>
+        <v>8.1659999999999996E-3</v>
       </c>
       <c r="G57" s="22">
-        <v>0.963028</v>
+        <v>0.90596699999999997</v>
       </c>
       <c r="H57" s="9">
-        <v>0.241174</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>117</v>
+        <v>0.51688800000000001</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.211316</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>2867055.8520459998</v>
+        <v>2869422.1218249998</v>
       </c>
       <c r="E58" s="22">
-        <v>1.316E-2</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="F58" s="22">
-        <v>4.3699999999999998E-3</v>
+        <v>8.2570000000000005E-3</v>
       </c>
       <c r="G58" s="22">
-        <v>0.95595799999999997</v>
+        <v>0.89334899999999995</v>
       </c>
       <c r="H58" s="9">
-        <v>0.28814000000000001</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>119</v>
+        <v>0.54515000000000002</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0.246449</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>2867107.831696</v>
+        <v>2869471.314425</v>
       </c>
       <c r="E59" s="22">
-        <v>2.6110000000000001E-2</v>
+        <v>4.1599999999999996E-3</v>
       </c>
       <c r="F59" s="22">
-        <v>4.3880000000000004E-3</v>
+        <v>8.2749999999999994E-3</v>
       </c>
       <c r="G59" s="22">
-        <v>0.95222700000000005</v>
+        <v>0.87340799999999996</v>
       </c>
       <c r="H59" s="9">
-        <v>0.29214000000000001</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>121</v>
+        <v>0.61675100000000005</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0.30269099999999999</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>2867222.089677</v>
+        <v>2870409.825582</v>
       </c>
       <c r="E60" s="22">
-        <v>1.379E-2</v>
+        <v>3.0300000000000001E-3</v>
       </c>
       <c r="F60" s="22">
-        <v>4.4279999999999996E-3</v>
+        <v>8.6040000000000005E-3</v>
       </c>
       <c r="G60" s="22">
-        <v>0.92220899999999995</v>
+        <v>0.88268899999999995</v>
       </c>
       <c r="H60" s="9">
-        <v>0.41500199999999998</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>123</v>
+        <v>0.56203199999999998</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0.27732899999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>2867317.802648</v>
+        <v>2871678.828946</v>
       </c>
       <c r="E61" s="22">
-        <v>1.6789999999999999E-2</v>
+        <v>4.6299999999999996E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>4.4619999999999998E-3</v>
+        <v>9.0500000000000008E-3</v>
       </c>
       <c r="G61" s="22">
-        <v>0.89649500000000004</v>
+        <v>0.862591</v>
       </c>
       <c r="H61" s="9">
-        <v>0.48451499999999997</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>125</v>
+        <v>0.64224099999999995</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0.33480100000000002</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>2867325.8697830001</v>
+        <v>2892158.3009899999</v>
       </c>
       <c r="E62" s="22">
-        <v>1.6549999999999999E-2</v>
+        <v>5.7499999999999999E-3</v>
       </c>
       <c r="F62" s="22">
-        <v>4.4650000000000002E-3</v>
+        <v>1.6246E-2</v>
       </c>
       <c r="G62" s="22">
-        <v>0.895339</v>
+        <v>0.81840100000000005</v>
       </c>
       <c r="H62" s="9">
-        <v>0.486933</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>127</v>
+        <v>0.71743999999999997</v>
+      </c>
+      <c r="I62" s="9">
+        <v>0.47268300000000002</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>2867340.4645890002</v>
+        <v>2892486.2044589999</v>
       </c>
       <c r="E63" s="22">
-        <v>1.9460000000000002E-2</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>4.47E-3</v>
+        <v>1.6362000000000002E-2</v>
       </c>
       <c r="G63" s="22">
-        <v>0.97468699999999997</v>
+        <v>0.81215499999999996</v>
       </c>
       <c r="H63" s="9">
-        <v>0.17818999999999999</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>129</v>
+        <v>0.75444199999999995</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0.494228</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>2867347.380506</v>
+        <v>2892646.0971059999</v>
       </c>
       <c r="E64" s="22">
-        <v>1.6500000000000001E-2</v>
+        <v>6.5300000000000002E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>4.4720000000000003E-3</v>
+        <v>1.6417999999999999E-2</v>
       </c>
       <c r="G64" s="22">
-        <v>0.96249799999999996</v>
+        <v>0.81444899999999998</v>
       </c>
       <c r="H64" s="9">
-        <v>0.25539299999999998</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>131</v>
+        <v>0.74292400000000003</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0.48511799999999999</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>2867352.0456889998</v>
+        <v>2893057.5878099999</v>
       </c>
       <c r="E65" s="22">
-        <v>1.9460000000000002E-2</v>
+        <v>4.7099999999999998E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>4.4739999999999997E-3</v>
+        <v>1.6562E-2</v>
       </c>
       <c r="G65" s="22">
-        <v>0.97451100000000002</v>
+        <v>0.81412200000000001</v>
       </c>
       <c r="H65" s="9">
-        <v>0.179009</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>133</v>
+        <v>0.74241000000000001</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0.48670200000000002</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>2867352.0456889998</v>
+        <v>2893131.3729110002</v>
       </c>
       <c r="E66" s="22">
-        <v>1.9460000000000002E-2</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="F66" s="22">
-        <v>4.4739999999999997E-3</v>
+        <v>1.6587999999999999E-2</v>
       </c>
       <c r="G66" s="22">
-        <v>0.97451100000000002</v>
+        <v>0.81535199999999997</v>
       </c>
       <c r="H66" s="9">
-        <v>0.179009</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>133</v>
+        <v>0.73586600000000002</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0.48286499999999999</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>2867373.592774</v>
+        <v>2893371.5629819999</v>
       </c>
       <c r="E67" s="22">
-        <v>1.3259999999999999E-2</v>
+        <v>9.3100000000000006E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>4.4809999999999997E-3</v>
+        <v>1.6673E-2</v>
       </c>
       <c r="G67" s="22">
-        <v>0.93142000000000003</v>
+        <v>0.79385700000000003</v>
       </c>
       <c r="H67" s="9">
-        <v>0.38602999999999998</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>136</v>
+        <v>0.76643099999999997</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0.54606699999999997</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>2867377.7909940002</v>
+        <v>2894369.1838730001</v>
       </c>
       <c r="E68" s="22">
-        <v>1.6230000000000001E-2</v>
+        <v>3.31E-3</v>
       </c>
       <c r="F68" s="22">
-        <v>4.483E-3</v>
+        <v>1.7023E-2</v>
       </c>
       <c r="G68" s="22">
-        <v>0.894598</v>
+        <v>0.81609600000000004</v>
       </c>
       <c r="H68" s="9">
-        <v>0.49085400000000001</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>138</v>
+        <v>0.73181399999999996</v>
+      </c>
+      <c r="I68" s="9">
+        <v>0.48107699999999998</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>2867378.0862199999</v>
+        <v>2894492.3963120002</v>
       </c>
       <c r="E69" s="22">
-        <v>1.6330000000000001E-2</v>
+        <v>6.13E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>4.483E-3</v>
+        <v>1.7066999999999999E-2</v>
       </c>
       <c r="G69" s="22">
-        <v>0.97262099999999996</v>
+        <v>0.81988700000000003</v>
       </c>
       <c r="H69" s="9">
-        <v>0.19498199999999999</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>140</v>
+        <v>0.71977400000000002</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0.47059600000000001</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>2867483.331793</v>
+        <v>2894829.2850580001</v>
       </c>
       <c r="E70" s="22">
-        <v>1.7399999999999999E-2</v>
+        <v>3.7299999999999998E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>4.5199999999999997E-3</v>
+        <v>1.7184999999999999E-2</v>
       </c>
       <c r="G70" s="22">
-        <v>0.94132400000000005</v>
+        <v>0.76652100000000001</v>
       </c>
       <c r="H70" s="9">
-        <v>0.352858</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>142</v>
+        <v>0.88375400000000004</v>
+      </c>
+      <c r="I70" s="9">
+        <v>0.63365000000000005</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>2867619.4278790001</v>
+        <v>2896320.1573950001</v>
       </c>
       <c r="E71" s="22">
-        <v>1.6299999999999999E-2</v>
+        <v>6.1399999999999996E-3</v>
       </c>
       <c r="F71" s="22">
-        <v>4.568E-3</v>
+        <v>1.7708999999999999E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.97300399999999998</v>
+        <v>0.81925099999999995</v>
       </c>
       <c r="H71" s="9">
-        <v>0.192137</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>144</v>
+        <v>0.72319</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0.47251100000000001</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>2868024.905516</v>
+        <v>2896331.9638240002</v>
       </c>
       <c r="E72" s="22">
-        <v>1.393E-2</v>
+        <v>7.0499999999999998E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>4.7099999999999998E-3</v>
+        <v>1.7713E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.93022700000000003</v>
+        <v>0.77946099999999996</v>
       </c>
       <c r="H72" s="9">
-        <v>0.37390499999999999</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>146</v>
+        <v>0.84493300000000005</v>
+      </c>
+      <c r="I72" s="9">
+        <v>0.59121699999999999</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>2868184.3066560002</v>
+        <v>2896380.7864669999</v>
       </c>
       <c r="E73" s="22">
-        <v>1.678E-2</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>4.7650000000000001E-3</v>
+        <v>1.7729999999999999E-2</v>
       </c>
       <c r="G73" s="22">
-        <v>0.90829599999999999</v>
+        <v>0.80573700000000004</v>
       </c>
       <c r="H73" s="9">
-        <v>0.46984700000000001</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>148</v>
+        <v>0.760015</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0.50927699999999998</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>2868192.9924590001</v>
+        <v>2896496.4809460002</v>
       </c>
       <c r="E74" s="22">
-        <v>1.162E-2</v>
+        <v>3.5500000000000002E-3</v>
       </c>
       <c r="F74" s="22">
-        <v>4.7679999999999997E-3</v>
+        <v>1.7770999999999999E-2</v>
       </c>
       <c r="G74" s="22">
-        <v>0.92857999999999996</v>
+        <v>0.807944</v>
       </c>
       <c r="H74" s="9">
-        <v>0.42028399999999999</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>150</v>
+        <v>0.75188999999999995</v>
+      </c>
+      <c r="I74" s="9">
+        <v>0.50014099999999995</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>2868247.521036</v>
+        <v>2896764.0264630001</v>
       </c>
       <c r="E75" s="22">
-        <v>1.6379999999999999E-2</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="F75" s="22">
-        <v>4.7879999999999997E-3</v>
+        <v>1.7864999999999999E-2</v>
       </c>
       <c r="G75" s="22">
-        <v>0.93210300000000001</v>
+        <v>0.82485900000000001</v>
       </c>
       <c r="H75" s="9">
-        <v>0.37159399999999998</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>152</v>
+        <v>0.71568100000000001</v>
+      </c>
+      <c r="I75" s="9">
+        <v>0.45457199999999998</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>2868441.2468209998</v>
+        <v>2896928.5467670001</v>
       </c>
       <c r="E76" s="22">
-        <v>1.303E-2</v>
+        <v>3.7599999999999999E-3</v>
       </c>
       <c r="F76" s="22">
-        <v>4.8549999999999999E-3</v>
+        <v>1.7923000000000001E-2</v>
       </c>
       <c r="G76" s="22">
-        <v>0.96466200000000002</v>
+        <v>0.81169400000000003</v>
       </c>
       <c r="H76" s="9">
-        <v>0.23536299999999999</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>154</v>
+        <v>0.73808399999999996</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0.49096400000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>2868599.5792319998</v>
+        <v>2897293.2412180002</v>
       </c>
       <c r="E77" s="22">
-        <v>2.3810000000000001E-2</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="F77" s="22">
-        <v>4.9109999999999996E-3</v>
+        <v>1.8051000000000001E-2</v>
       </c>
       <c r="G77" s="22">
-        <v>0.96318000000000004</v>
+        <v>0.83255999999999997</v>
       </c>
       <c r="H77" s="9">
-        <v>0.25182399999999999</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>156</v>
+        <v>0.69127799999999995</v>
+      </c>
+      <c r="I77" s="9">
+        <v>0.43466399999999999</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>2868939.930044</v>
+        <v>2897783.9865879999</v>
       </c>
       <c r="E78" s="22">
-        <v>1.1990000000000001E-2</v>
+        <v>3.15E-3</v>
       </c>
       <c r="F78" s="22">
-        <v>5.0299999999999997E-3</v>
+        <v>1.8223E-2</v>
       </c>
       <c r="G78" s="22">
-        <v>0.95618999999999998</v>
+        <v>0.83386099999999996</v>
       </c>
       <c r="H78" s="9">
-        <v>0.26951700000000001</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>158</v>
+        <v>0.69047199999999997</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0.42997099999999999</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>2869107.9246999999</v>
+        <v>2898810.4993670001</v>
       </c>
       <c r="E79" s="22">
-        <v>1.367E-2</v>
+        <v>1.9300000000000001E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>5.0889999999999998E-3</v>
+        <v>1.8584E-2</v>
       </c>
       <c r="G79" s="22">
-        <v>0.91932100000000005</v>
+        <v>0.84114</v>
       </c>
       <c r="H79" s="9">
-        <v>0.46423900000000001</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>160</v>
+        <v>0.66486800000000001</v>
+      </c>
+      <c r="I79" s="9">
+        <v>0.41211799999999998</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>2869196.9026410002</v>
+        <v>2898853.5619069999</v>
       </c>
       <c r="E80" s="22">
-        <v>1.4319999999999999E-2</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="F80" s="22">
-        <v>5.1200000000000004E-3</v>
+        <v>1.8599000000000001E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.97181300000000004</v>
+        <v>0.76503399999999999</v>
       </c>
       <c r="H80" s="9">
-        <v>0.20563300000000001</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>162</v>
+        <v>0.87162700000000004</v>
+      </c>
+      <c r="I80" s="9">
+        <v>0.63510500000000003</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>2869409.3927040002</v>
+        <v>2898853.5619069999</v>
       </c>
       <c r="E81" s="22">
-        <v>1.3050000000000001E-2</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="F81" s="22">
-        <v>5.195E-3</v>
+        <v>1.8599000000000001E-2</v>
       </c>
       <c r="G81" s="22">
-        <v>0.96624600000000005</v>
+        <v>0.76503399999999999</v>
       </c>
       <c r="H81" s="9">
-        <v>0.23320299999999999</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>164</v>
+        <v>0.87162700000000004</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0.63510500000000003</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>2869542.523759</v>
+        <v>2899187.724434</v>
       </c>
       <c r="E82" s="22">
-        <v>2.0959999999999999E-2</v>
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="F82" s="22">
-        <v>5.241E-3</v>
+        <v>1.8716E-2</v>
       </c>
       <c r="G82" s="22">
-        <v>0.95605099999999998</v>
+        <v>0.811921</v>
       </c>
       <c r="H82" s="9">
-        <v>0.28981200000000001</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>166</v>
+        <v>0.74890699999999999</v>
+      </c>
+      <c r="I82" s="9">
+        <v>0.49074400000000001</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>2869878.3998810002</v>
+        <v>2899579.2511999998</v>
       </c>
       <c r="E83" s="22">
-        <v>1.8440000000000002E-2</v>
+        <v>3.9100000000000003E-3</v>
       </c>
       <c r="F83" s="22">
-        <v>5.359E-3</v>
+        <v>1.8853999999999999E-2</v>
       </c>
       <c r="G83" s="22">
-        <v>0.95862499999999995</v>
+        <v>0.78260399999999997</v>
       </c>
       <c r="H83" s="9">
-        <v>0.27202900000000002</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>168</v>
+        <v>0.82527099999999998</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0.58163900000000002</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>2869992.2502939999</v>
+        <v>2899685.5366699998</v>
       </c>
       <c r="E84" s="22">
-        <v>1.47E-2</v>
+        <v>4.5900000000000003E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>5.3990000000000002E-3</v>
+        <v>1.8891000000000002E-2</v>
       </c>
       <c r="G84" s="22">
-        <v>0.93261099999999997</v>
+        <v>0.81365699999999996</v>
       </c>
       <c r="H84" s="9">
-        <v>0.383023</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>170</v>
+        <v>0.74670999999999998</v>
+      </c>
+      <c r="I84" s="9">
+        <v>0.486398</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>2870686.4570909999</v>
+        <v>2899838.1786130001</v>
       </c>
       <c r="E85" s="22">
-        <v>1.389E-2</v>
+        <v>8.3300000000000006E-3</v>
       </c>
       <c r="F85" s="22">
-        <v>5.6420000000000003E-3</v>
+        <v>1.8945E-2</v>
       </c>
       <c r="G85" s="22">
-        <v>0.97654300000000005</v>
+        <v>0.79862</v>
       </c>
       <c r="H85" s="9">
-        <v>0.17036000000000001</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>172</v>
+        <v>0.78119400000000006</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0.53191999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>2870809.0334450002</v>
+        <v>2899898.260369</v>
       </c>
       <c r="E86" s="22">
-        <v>1.376E-2</v>
+        <v>3.46E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>5.6849999999999999E-3</v>
+        <v>1.8966E-2</v>
       </c>
       <c r="G86" s="22">
-        <v>0.92692699999999995</v>
+        <v>0.75906399999999996</v>
       </c>
       <c r="H86" s="9">
-        <v>0.42904900000000001</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>174</v>
+        <v>0.86522900000000003</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0.64094300000000004</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>2871122.4154610001</v>
+        <v>2900754.1452020002</v>
       </c>
       <c r="E87" s="22">
-        <v>1.7219999999999999E-2</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>5.7949999999999998E-3</v>
+        <v>1.9266999999999999E-2</v>
       </c>
       <c r="G87" s="22">
-        <v>0.90039899999999995</v>
+        <v>0.76656899999999994</v>
       </c>
       <c r="H87" s="9">
-        <v>0.46519700000000003</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>176</v>
+        <v>0.84901000000000004</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0.62163500000000005</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>2871252.6987339999</v>
+        <v>2901830.710856</v>
       </c>
       <c r="E88" s="22">
-        <v>3.1460000000000002E-2</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>5.8399999999999997E-3</v>
+        <v>1.9644999999999999E-2</v>
       </c>
       <c r="G88" s="22">
-        <v>0.88907000000000003</v>
+        <v>0.80538399999999999</v>
       </c>
       <c r="H88" s="9">
-        <v>0.51994700000000005</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>178</v>
+        <v>0.773447</v>
+      </c>
+      <c r="I88" s="9">
+        <v>0.51608100000000001</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>2871412.4652789999</v>
+        <v>2902061.6695599998</v>
       </c>
       <c r="E89" s="22">
-        <v>1.8499999999999999E-2</v>
+        <v>5.8500000000000002E-3</v>
       </c>
       <c r="F89" s="22">
-        <v>5.8960000000000002E-3</v>
+        <v>1.9726E-2</v>
       </c>
       <c r="G89" s="22">
-        <v>0.93006299999999997</v>
+        <v>0.80593300000000001</v>
       </c>
       <c r="H89" s="9">
-        <v>0.41520499999999999</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>180</v>
+        <v>0.76915900000000004</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0.51478100000000004</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>2871536.2685909998</v>
+        <v>2902703.9848039998</v>
       </c>
       <c r="E90" s="22">
-        <v>1.583E-2</v>
+        <v>2.49E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>5.94E-3</v>
+        <v>1.9952000000000001E-2</v>
       </c>
       <c r="G90" s="22">
-        <v>0.90907199999999999</v>
+        <v>0.80695499999999998</v>
       </c>
       <c r="H90" s="9">
-        <v>0.46288899999999999</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>182</v>
+        <v>0.77564999999999995</v>
+      </c>
+      <c r="I90" s="9">
+        <v>0.51196699999999995</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>2871576.9789390001</v>
+        <v>2902909.4099320001</v>
       </c>
       <c r="E91" s="22">
-        <v>1.4540000000000001E-2</v>
+        <v>8.0800000000000004E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>5.9540000000000001E-3</v>
+        <v>2.0024E-2</v>
       </c>
       <c r="G91" s="22">
-        <v>0.92786599999999997</v>
+        <v>0.75812900000000005</v>
       </c>
       <c r="H91" s="9">
-        <v>0.38815100000000002</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>184</v>
+        <v>0.88638600000000001</v>
+      </c>
+      <c r="I91" s="9">
+        <v>0.65372799999999998</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>2871622.316534</v>
+        <v>2904231.8848120002</v>
       </c>
       <c r="E92" s="22">
-        <v>1.5820000000000001E-2</v>
+        <v>4.9699999999999996E-3</v>
       </c>
       <c r="F92" s="22">
-        <v>5.9699999999999996E-3</v>
+        <v>2.0489E-2</v>
       </c>
       <c r="G92" s="22">
-        <v>0.962723</v>
+        <v>0.76892799999999994</v>
       </c>
       <c r="H92" s="9">
-        <v>0.25123400000000001</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>186</v>
+        <v>0.86707299999999998</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0.62413799999999997</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>2871698.3466690001</v>
+        <v>2904409.1367250001</v>
       </c>
       <c r="E93" s="22">
-        <v>1.257E-2</v>
+        <v>6.1199999999999996E-3</v>
       </c>
       <c r="F93" s="22">
-        <v>5.9959999999999996E-3</v>
+        <v>2.0551E-2</v>
       </c>
       <c r="G93" s="22">
-        <v>0.95678799999999997</v>
+        <v>0.76563300000000001</v>
       </c>
       <c r="H93" s="9">
-        <v>0.27779999999999999</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>188</v>
+        <v>0.85583699999999996</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0.62451199999999996</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>2871887.5079000001</v>
+        <v>2904502.2468409999</v>
       </c>
       <c r="E94" s="22">
-        <v>1.323E-2</v>
+        <v>7.3600000000000002E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>6.0629999999999998E-3</v>
+        <v>2.0584000000000002E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.93062999999999996</v>
+        <v>0.76381900000000003</v>
       </c>
       <c r="H94" s="9">
-        <v>0.39046599999999998</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>190</v>
+        <v>0.86470899999999995</v>
+      </c>
+      <c r="I94" s="9">
+        <v>0.63591799999999998</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>2874442.630043</v>
+        <v>2904508.9078230001</v>
       </c>
       <c r="E95" s="22">
-        <v>2.0820000000000002E-2</v>
+        <v>5.3600000000000002E-3</v>
       </c>
       <c r="F95" s="22">
-        <v>6.9579999999999998E-3</v>
+        <v>2.0586E-2</v>
       </c>
       <c r="G95" s="22">
-        <v>0.96318000000000004</v>
+        <v>0.80685399999999996</v>
       </c>
       <c r="H95" s="9">
-        <v>0.245282</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>192</v>
+        <v>0.77745399999999998</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0.51296299999999995</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>2899281.4100720002</v>
+        <v>2904769.0850320002</v>
       </c>
       <c r="E96" s="22">
-        <v>1.1039999999999999E-2</v>
+        <v>5.1200000000000004E-3</v>
       </c>
       <c r="F96" s="22">
-        <v>1.5658999999999999E-2</v>
+        <v>2.0677999999999998E-2</v>
       </c>
       <c r="G96" s="22">
-        <v>0.81575500000000001</v>
+        <v>0.75276299999999996</v>
       </c>
       <c r="H96" s="9">
-        <v>0.74614199999999997</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>194</v>
+        <v>0.90321300000000004</v>
+      </c>
+      <c r="I96" s="9">
+        <v>0.67029799999999995</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="23">
-        <v>2899797.8150189999</v>
+        <v>2905015.0597799998</v>
       </c>
       <c r="E97" s="22">
-        <v>1.6E-2</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="F97" s="22">
-        <v>1.584E-2</v>
+        <v>2.0764000000000001E-2</v>
       </c>
       <c r="G97" s="22">
-        <v>0.80245100000000003</v>
+        <v>0.74311499999999997</v>
       </c>
       <c r="H97" s="9">
-        <v>0.78129000000000004</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>196</v>
+        <v>0.92801199999999995</v>
+      </c>
+      <c r="I97" s="9">
+        <v>0.70383200000000001</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="23">
-        <v>2900124.8629680001</v>
+        <v>2906466.064187</v>
       </c>
       <c r="E98" s="22">
-        <v>1.626E-2</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="F98" s="22">
-        <v>1.5955E-2</v>
+        <v>2.1274000000000001E-2</v>
       </c>
       <c r="G98" s="22">
-        <v>0.81004699999999996</v>
+        <v>0.82492900000000002</v>
       </c>
       <c r="H98" s="9">
-        <v>0.76109599999999999</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>198</v>
+        <v>0.73205299999999995</v>
+      </c>
+      <c r="I98" s="9">
+        <v>0.44773200000000002</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="23">
-        <v>2906295.7658540001</v>
+        <v>2906663.574153</v>
       </c>
       <c r="E99" s="22">
-        <v>1.9879999999999998E-2</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="F99" s="22">
-        <v>1.8116E-2</v>
+        <v>2.1343000000000001E-2</v>
       </c>
       <c r="G99" s="22">
-        <v>0.81840999999999997</v>
+        <v>0.80123800000000001</v>
       </c>
       <c r="H99" s="9">
-        <v>0.73782499999999995</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>46</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" s="23">
-        <v>2906623.488595</v>
-      </c>
-      <c r="E100" s="22">
-        <v>1.2970000000000001E-2</v>
-      </c>
-      <c r="F100" s="22">
-        <v>1.8231000000000001E-2</v>
-      </c>
-      <c r="G100" s="22">
-        <v>0.80327700000000002</v>
-      </c>
-      <c r="H100" s="9">
-        <v>0.76847699999999997</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>202</v>
+        <v>0.81356399999999995</v>
+      </c>
+      <c r="I99" s="9">
+        <v>0.52980099999999997</v>
       </c>
     </row>
   </sheetData>

--- a/maps/MN/MN20C_candidates.xlsx
+++ b/maps/MN/MN20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/MN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DE1E9A-03CE-1F4A-8344-13E17906A0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE98EDA-426E-D94A-8C80-55F806AB9AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -1081,7 +1081,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/maps/MN/MN20C_candidates.xlsx
+++ b/maps/MN/MN20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/MN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D966DF3-5B03-3345-84E0-C6B813A0213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0245BDD1-95CF-BF40-825E-B84DF6D44608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -1131,7 +1131,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="A2:L2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
